--- a/tool/Crawler/BenchMarks-MLfuzzing.xlsx
+++ b/tool/Crawler/BenchMarks-MLfuzzing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\xFuzz\tool\Crawler\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B19D9F9B-6904-407D-A1C0-5D5A840E5E67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3F72C9A-E315-4C6A-B1FD-0407649307C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="666" uniqueCount="395">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="657" uniqueCount="386">
   <si>
     <t>id</t>
   </si>
@@ -1138,9 +1138,6 @@
     <t>Star</t>
   </si>
   <si>
-    <t>['C', 'Python', 'Makefile']</t>
-  </si>
-  <si>
     <t>https://github.com/dell/libsmbios.git</t>
   </si>
   <si>
@@ -1163,30 +1160,6 @@
   </si>
   <si>
     <t>Read-only mirror of https://gitlab.gnome.org/GNOME/pygobject</t>
-  </si>
-  <si>
-    <t>['Java', 'C', 'Shell']</t>
-  </si>
-  <si>
-    <t>https://github.com/jessaofraksss/OpenVPN-Connect-for-Android.git</t>
-  </si>
-  <si>
-    <t>For Project Purposes Only - Git clone from offical mercurial repository</t>
-  </si>
-  <si>
-    <t>https://github.com/aborche/openvpn-plugin-python-proxy.git</t>
-  </si>
-  <si>
-    <t>OpenVPN plugin python proxy</t>
-  </si>
-  <si>
-    <t>['C', 'Shell', 'Java']</t>
-  </si>
-  <si>
-    <t>https://github.com/alalamav/android-openvpn-lib.git</t>
-  </si>
-  <si>
-    <t>Library version of OpenVPN for Android. [EXPERIMENT; NOT MAINTAINED]</t>
   </si>
   <si>
     <t>Java_C</t>
@@ -1258,7 +1231,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1281,12 +1254,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1297,6 +1283,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1650,7 +1640,7 @@
   <dimension ref="A1:O178"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D185" sqref="D185"/>
+      <selection activeCell="C195" sqref="C195"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1683,7 +1673,7 @@
         <v>361</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>388</v>
+        <v>379</v>
       </c>
     </row>
     <row r="2" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
@@ -1841,8 +1831,8 @@
       <c r="J10" s="1"/>
     </row>
     <row r="11" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="4">
-        <v>10</v>
+      <c r="A11" s="11">
+        <v>1</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>355</v>
@@ -1855,15 +1845,15 @@
       </c>
       <c r="E11" s="4"/>
       <c r="F11" s="4" t="s">
-        <v>387</v>
+        <v>378</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
     </row>
     <row r="12" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="4">
-        <v>11</v>
+      <c r="A12" s="11">
+        <v>2</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>355</v>
@@ -1876,10 +1866,10 @@
       </c>
       <c r="E12" s="4"/>
       <c r="F12" s="4" t="s">
-        <v>387</v>
+        <v>378</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
     </row>
     <row r="13" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
@@ -2478,8 +2468,8 @@
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A49" s="2">
-        <v>48</v>
+      <c r="A49" s="11">
+        <v>3</v>
       </c>
       <c r="B49" s="6" t="s">
         <v>354</v>
@@ -2494,10 +2484,10 @@
         <v>364</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>392</v>
+        <v>383</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
     </row>
     <row r="50" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -4461,10 +4451,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDD6F017-2AA2-42FE-B048-AE8355BFACCE}">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4500,12 +4490,12 @@
         <v>361</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>388</v>
+        <v>379</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="4">
-        <v>65932961</v>
+      <c r="A2" s="11">
+        <v>1</v>
       </c>
       <c r="B2" s="4">
         <v>122</v>
@@ -4514,22 +4504,22 @@
         <v>355</v>
       </c>
       <c r="D2" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>370</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>371</v>
       </c>
       <c r="F2" s="4"/>
       <c r="G2" s="4" t="s">
-        <v>387</v>
+        <v>378</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>389</v>
+        <v>380</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="4">
-        <v>20101515</v>
+      <c r="A3" s="11">
+        <v>2</v>
       </c>
       <c r="B3" s="4">
         <v>7994</v>
@@ -4545,15 +4535,15 @@
       </c>
       <c r="F3" s="6"/>
       <c r="G3" s="4" t="s">
-        <v>387</v>
+        <v>378</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="4">
-        <v>44414987</v>
+      <c r="A4" s="11">
+        <v>3</v>
       </c>
       <c r="B4" s="4">
         <v>186</v>
@@ -4562,22 +4552,22 @@
         <v>355</v>
       </c>
       <c r="D4" s="8" t="s">
+        <v>371</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>372</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>373</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="4" t="s">
-        <v>387</v>
+        <v>378</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="4">
-        <v>1017693</v>
+      <c r="A5" s="11">
+        <v>4</v>
       </c>
       <c r="B5" s="4">
         <v>160</v>
@@ -4586,20 +4576,20 @@
         <v>355</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>391</v>
+        <v>382</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
       <c r="G5" s="4" t="s">
-        <v>387</v>
+        <v>378</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="4">
-        <v>36075339</v>
+      <c r="A6" s="11">
+        <v>5</v>
       </c>
       <c r="B6" s="4">
         <v>138</v>
@@ -4608,22 +4598,22 @@
         <v>355</v>
       </c>
       <c r="D6" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>374</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>375</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4" t="s">
-        <v>387</v>
+        <v>378</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="4">
-        <v>4526702</v>
+        <v>381</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="11">
+        <v>6</v>
       </c>
       <c r="B7" s="4">
         <v>131</v>
@@ -4632,104 +4622,54 @@
         <v>355</v>
       </c>
       <c r="D7" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>376</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>377</v>
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="4" t="s">
-        <v>387</v>
+        <v>378</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
     </row>
     <row r="8" spans="1:8" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="4">
-        <v>0</v>
+      <c r="A8" s="11">
+        <v>7</v>
       </c>
       <c r="B8" s="4">
         <v>12000</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>386</v>
+        <v>377</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>393</v>
+        <v>384</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>394</v>
+        <v>385</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>357</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>387</v>
+        <v>378</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="2">
-        <v>136678045</v>
-      </c>
-      <c r="B9" s="2">
-        <v>7</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>378</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>379</v>
-      </c>
-      <c r="E9" s="2" t="s">
         <v>380</v>
       </c>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-    </row>
-    <row r="10" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="2">
-        <v>165491054</v>
-      </c>
-      <c r="B10" s="2">
-        <v>7</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>381</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-    </row>
-    <row r="11" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="2">
-        <v>60185529</v>
-      </c>
-      <c r="B11" s="2">
-        <v>5</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>385</v>
-      </c>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="10"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/tool/Crawler/BenchMarks-MLfuzzing.xlsx
+++ b/tool/Crawler/BenchMarks-MLfuzzing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\xFuzz\tool\Crawler\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1042646E-FB12-4194-BDD0-657259DE10BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{891AB1A9-EE53-4C19-ADB5-B469CADABA73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="56">
   <si>
     <t>id</t>
   </si>
@@ -651,7 +651,7 @@
   <dimension ref="A1:AG21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -705,7 +705,9 @@
       <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="2"/>
+      <c r="F2" s="2" t="s">
+        <v>54</v>
+      </c>
       <c r="G2" s="2" t="s">
         <v>29</v>
       </c>

--- a/tool/Crawler/BenchMarks-MLfuzzing.xlsx
+++ b/tool/Crawler/BenchMarks-MLfuzzing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\xFuzz\tool\Crawler\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{891AB1A9-EE53-4C19-ADB5-B469CADABA73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19509604-101E-49F7-9738-0DD9A488B14F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="crawler" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">crawler!$A$1:$G$21</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">crawler!$A$1:$H$21</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="60">
   <si>
     <t>id</t>
   </si>
@@ -196,6 +196,18 @@
   </si>
   <si>
     <t>setup-python</t>
+  </si>
+  <si>
+    <t>Size</t>
+  </si>
+  <si>
+    <t>71 K</t>
+  </si>
+  <si>
+    <t>243 K</t>
+  </si>
+  <si>
+    <t>31 K</t>
   </si>
 </sst>
 </file>
@@ -648,10 +660,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AG21"/>
+  <dimension ref="A1:AH21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -661,12 +673,13 @@
     <col min="3" max="3" width="16.21875" style="1" customWidth="1"/>
     <col min="4" max="4" width="40.33203125" style="1" customWidth="1"/>
     <col min="5" max="5" width="91.44140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14.44140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="8.88671875" style="1"/>
-    <col min="8" max="33" width="8.88671875" style="11"/>
+    <col min="6" max="6" width="12" style="1" customWidth="1"/>
+    <col min="7" max="7" width="14.44140625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="8.88671875" style="1"/>
+    <col min="9" max="34" width="8.88671875" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -683,13 +696,16 @@
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:33" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:34" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7">
         <v>1</v>
       </c>
@@ -706,12 +722,14 @@
         <v>5</v>
       </c>
       <c r="F2" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H2" s="12"/>
+      <c r="H2" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="I2" s="12"/>
       <c r="J2" s="12"/>
       <c r="K2" s="12"/>
@@ -737,8 +755,9 @@
       <c r="AE2" s="12"/>
       <c r="AF2" s="12"/>
       <c r="AG2" s="12"/>
-    </row>
-    <row r="3" spans="1:33" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AH2" s="12"/>
+    </row>
+    <row r="3" spans="1:34" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7">
         <v>2</v>
       </c>
@@ -755,10 +774,10 @@
         <v>7</v>
       </c>
       <c r="F3" s="2"/>
-      <c r="G3" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H3" s="12"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="I3" s="12"/>
       <c r="J3" s="12"/>
       <c r="K3" s="12"/>
@@ -784,8 +803,9 @@
       <c r="AE3" s="12"/>
       <c r="AF3" s="12"/>
       <c r="AG3" s="12"/>
-    </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH3" s="12"/>
+    </row>
+    <row r="4" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A4" s="7">
         <v>3</v>
       </c>
@@ -801,14 +821,17 @@
       <c r="E4" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="G4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A5" s="7">
         <v>4</v>
       </c>
@@ -825,11 +848,12 @@
         <v>11</v>
       </c>
       <c r="F5" s="2"/>
-      <c r="G5" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="G5" s="2"/>
+      <c r="H5" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A6" s="7">
         <v>5</v>
       </c>
@@ -846,11 +870,12 @@
         <v>34</v>
       </c>
       <c r="F6" s="2"/>
-      <c r="G6" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="G6" s="2"/>
+      <c r="H6" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A7" s="7">
         <v>6</v>
       </c>
@@ -867,11 +892,12 @@
         <v>36</v>
       </c>
       <c r="F7" s="2"/>
-      <c r="G7" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="G7" s="2"/>
+      <c r="H7" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A8" s="7">
         <v>7</v>
       </c>
@@ -888,11 +914,12 @@
         <v>38</v>
       </c>
       <c r="F8" s="2"/>
-      <c r="G8" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="G8" s="2"/>
+      <c r="H8" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A9" s="7">
         <v>8</v>
       </c>
@@ -909,11 +936,12 @@
         <v>40</v>
       </c>
       <c r="F9" s="2"/>
-      <c r="G9" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="G9" s="2"/>
+      <c r="H9" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A10" s="7">
         <v>9</v>
       </c>
@@ -930,11 +958,12 @@
         <v>42</v>
       </c>
       <c r="F10" s="2"/>
-      <c r="G10" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="G10" s="2"/>
+      <c r="H10" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A11" s="7">
         <v>10</v>
       </c>
@@ -951,11 +980,12 @@
         <v>15</v>
       </c>
       <c r="F11" s="2"/>
-      <c r="G11" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="G11" s="2"/>
+      <c r="H11" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A12" s="7">
         <v>11</v>
       </c>
@@ -972,11 +1002,12 @@
         <v>44</v>
       </c>
       <c r="F12" s="2"/>
-      <c r="G12" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="G12" s="2"/>
+      <c r="H12" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A13" s="7">
         <v>12</v>
       </c>
@@ -993,11 +1024,12 @@
         <v>46</v>
       </c>
       <c r="F13" s="2"/>
-      <c r="G13" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="G13" s="2"/>
+      <c r="H13" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A14" s="7">
         <v>13</v>
       </c>
@@ -1013,14 +1045,15 @@
       <c r="E14" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="F14" s="2"/>
+      <c r="G14" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G14" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="H14" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A15" s="7">
         <v>14</v>
       </c>
@@ -1037,13 +1070,16 @@
         <v>20</v>
       </c>
       <c r="F15" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G15" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="G15" s="10" t="s">
+      <c r="H15" s="10" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A16" s="7">
         <v>15</v>
       </c>
@@ -1059,12 +1095,13 @@
       <c r="E16" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F16" s="4"/>
-      <c r="G16" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="F16" s="2"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A17" s="7">
         <v>16</v>
       </c>
@@ -1081,11 +1118,12 @@
         <v>22</v>
       </c>
       <c r="F17" s="2"/>
-      <c r="G17" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="G17" s="2"/>
+      <c r="H17" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A18" s="7">
         <v>17</v>
       </c>
@@ -1102,11 +1140,12 @@
         <v>52</v>
       </c>
       <c r="F18" s="2"/>
-      <c r="G18" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="G18" s="2"/>
+      <c r="H18" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A19" s="7">
         <v>18</v>
       </c>
@@ -1123,11 +1162,12 @@
         <v>24</v>
       </c>
       <c r="F19" s="2"/>
-      <c r="G19" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="20" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G19" s="2"/>
+      <c r="H19" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="7">
         <v>19</v>
       </c>
@@ -1144,11 +1184,12 @@
         <v>26</v>
       </c>
       <c r="F20" s="2"/>
-      <c r="G20" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="21" spans="1:33" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G20" s="2"/>
+      <c r="H20" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="1:34" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="7">
         <v>20</v>
       </c>
@@ -1165,12 +1206,14 @@
         <v>31</v>
       </c>
       <c r="F21" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G21" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="G21" s="10" t="s">
+      <c r="H21" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="H21" s="12"/>
       <c r="I21" s="12"/>
       <c r="J21" s="12"/>
       <c r="K21" s="12"/>
@@ -1196,9 +1239,10 @@
       <c r="AE21" s="12"/>
       <c r="AF21" s="12"/>
       <c r="AG21" s="12"/>
+      <c r="AH21" s="12"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G21" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:H21" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" xr:uid="{60309EB9-6F20-4F79-9E76-0148B843B299}"/>
     <hyperlink ref="D3" r:id="rId2" xr:uid="{6804EB0D-0D25-4599-B199-5A7FF7874CE5}"/>

--- a/tool/Crawler/BenchMarks-MLfuzzing.xlsx
+++ b/tool/Crawler/BenchMarks-MLfuzzing.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\xFuzz\tool\Crawler\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\git\xFuzz\tool\Crawler\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19509604-101E-49F7-9738-0DD9A488B14F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7D1DBEC-66A8-4097-BEBA-FC8BA9E9CEBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -662,8 +662,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AH21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
